--- a/public/downloads/1_La_Orden_de_Produccion.xlsx
+++ b/public/downloads/1_La_Orden_de_Produccion.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AURA MARGARITA\Desktop\Diseño curricular Supervision en procesos de Confección Virtual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizmnc/Docs/sn/922500_CF1_SUPERVISION_PROCESOS_CONFECCION/public/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C8BAE4-6A0B-584F-B786-9E43D22AB793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="34060" yWindow="1160" windowWidth="28180" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orden Producción Ejemplo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -50,9 +53,6 @@
     <t>Fechas</t>
   </si>
   <si>
-    <t xml:space="preserve">Firma del encargado del deposito </t>
-  </si>
-  <si>
     <t>Presupuesto</t>
   </si>
   <si>
@@ -92,9 +92,6 @@
     <t xml:space="preserve">Costos indirectos </t>
   </si>
   <si>
-    <t xml:space="preserve">Costos de Produccion </t>
-  </si>
-  <si>
     <t xml:space="preserve">Unidades Producidas </t>
   </si>
   <si>
@@ -143,18 +140,12 @@
     <t xml:space="preserve">jefe de sector </t>
   </si>
   <si>
-    <t>director de produccion</t>
-  </si>
-  <si>
     <t>cumplimiento:</t>
   </si>
   <si>
     <t>Orden de Producción N° 001</t>
   </si>
   <si>
-    <t>para la elaboracion de: camiseta polo dama</t>
-  </si>
-  <si>
     <t>unidades de: 2449</t>
   </si>
   <si>
@@ -197,13 +188,25 @@
     <t>Expedida el: 20 de Mayo del 2021</t>
   </si>
   <si>
-    <t>Fecha prevista de terminacion:</t>
+    <t>Fecha prevista de terminación:</t>
+  </si>
+  <si>
+    <t>director de producción</t>
+  </si>
+  <si>
+    <t>para la elaboración de: camiseta polo dama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firma del encargado del depósito </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costos de Producción </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -823,15 +826,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -844,278 +845,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1125,6 +926,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1137,10 +939,208 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1423,1049 +1423,1132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:Y104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="H21" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29:S29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="2.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="6.5703125" style="2" customWidth="1"/>
-    <col min="18" max="20" width="10.7109375" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="14" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="2.1640625" customWidth="1"/>
+    <col min="16" max="16" width="5.1640625" customWidth="1"/>
+    <col min="17" max="17" width="6.5" customWidth="1"/>
+    <col min="18" max="20" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:25" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="75" t="s">
+    <row r="1" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:25" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="34"/>
-    </row>
-    <row r="3" spans="2:25" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-    </row>
-    <row r="4" spans="2:25" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="87" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="54"/>
+    </row>
+    <row r="3" spans="2:25" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+    </row>
+    <row r="4" spans="2:25" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+    </row>
+    <row r="5" spans="2:25" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="88"/>
+    </row>
+    <row r="6" spans="2:25" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="91"/>
+    </row>
+    <row r="7" spans="2:25" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="93"/>
+    </row>
+    <row r="8" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="43"/>
+      <c r="U8" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="86"/>
+      <c r="W8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="54"/>
+      <c r="O9" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-    </row>
-    <row r="5" spans="2:25" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="65"/>
-    </row>
-    <row r="6" spans="2:25" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="87" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="68"/>
-    </row>
-    <row r="7" spans="2:25" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="70"/>
-    </row>
-    <row r="8" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="29"/>
-      <c r="U8" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="V8" s="63"/>
-      <c r="W8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="34"/>
-      <c r="O9" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="34"/>
-      <c r="U9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V9" s="4">
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="54"/>
+      <c r="U9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V9" s="2">
         <v>549</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="3">
         <v>0.6</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="2">
         <f>V9*W9</f>
         <v>329.4</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Y9" s="4">
         <f>X9*W14</f>
         <v>4941000</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="37"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="9" t="s">
+    <row r="10" spans="2:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="39"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="106"/>
+      <c r="I10" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="86"/>
-      <c r="I10" s="64" t="s">
+      <c r="J10" s="106"/>
+      <c r="K10" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="86"/>
-      <c r="K10" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="86"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="36"/>
-      <c r="U10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V10" s="4">
+      <c r="L10" s="106"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="38"/>
+      <c r="U10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" s="2">
         <v>1200</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10" s="2">
         <v>0.66</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10" s="2">
         <f t="shared" ref="X10:X11" si="0">V10*W10</f>
         <v>792</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="4">
         <f>X10*W14</f>
         <v>11880000</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="11">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B11" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="9">
         <v>549</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>0.6</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="11">
         <v>15000</v>
       </c>
-      <c r="G11" s="99">
+      <c r="G11" s="73">
         <f>D11*E11*F11</f>
         <v>4941000</v>
       </c>
-      <c r="H11" s="100"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="104">
+      <c r="H11" s="74"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="82">
         <v>0</v>
       </c>
-      <c r="L11" s="105"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="U11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="V11" s="4">
+      <c r="L11" s="83"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="U11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V11" s="2">
         <v>700</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11" s="2">
         <v>0.72</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="2">
         <f t="shared" si="0"/>
         <v>504</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="Y11" s="4">
         <f>X11*W14</f>
         <v>7560000</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="14">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B12" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="12">
         <v>1200</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <v>0.66</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <v>15000</v>
       </c>
-      <c r="G12" s="99">
+      <c r="G12" s="73">
         <f t="shared" ref="G12:G13" si="1">D12*E12*F12</f>
         <v>11880000</v>
       </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="59">
+      <c r="H12" s="74"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="77">
         <v>0</v>
       </c>
-      <c r="L12" s="60"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="53"/>
-      <c r="U12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V12" s="4">
+      <c r="L12" s="78"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="U12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V12" s="2">
         <f>SUM(V9:V11)</f>
         <v>2449</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="14">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B13" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="12">
         <v>700</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="13">
         <v>0.72</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <v>15000</v>
       </c>
-      <c r="G13" s="99">
+      <c r="G13" s="73">
         <f t="shared" si="1"/>
         <v>7560000</v>
       </c>
-      <c r="H13" s="100"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="59">
+      <c r="H13" s="74"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="77">
         <v>0</v>
       </c>
-      <c r="L13" s="60"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="98"/>
-      <c r="S13" s="53"/>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="14">
+      <c r="L13" s="78"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B14" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="72"/>
+      <c r="D14" s="12">
         <v>2449</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="12">
         <v>2</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <v>200</v>
       </c>
-      <c r="G14" s="56">
+      <c r="G14" s="110">
         <f t="shared" ref="G14:G21" si="2">D14*E14*F14</f>
         <v>979600</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="59">
+      <c r="H14" s="76"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="77">
         <v>0</v>
       </c>
-      <c r="L14" s="60"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="53"/>
-      <c r="V14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="W14" s="8">
+      <c r="L14" s="78"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="V14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14" s="6">
         <v>15000</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="14">
+    <row r="15" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="72"/>
+      <c r="D15" s="12">
         <v>2449</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>1</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="12">
         <v>2000</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="59">
+      <c r="G15" s="109"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77">
         <v>0</v>
       </c>
-      <c r="L15" s="60"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="53"/>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="14">
+      <c r="L15" s="78"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B16" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="72"/>
+      <c r="D16" s="12">
         <v>2449</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <v>1</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="12">
         <v>2500</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="110">
         <f t="shared" si="2"/>
         <v>6122500</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="59">
+      <c r="H16" s="76"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="77">
         <v>0</v>
       </c>
-      <c r="L16" s="60"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="53"/>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B17" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="14">
+      <c r="L16" s="78"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B17" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="72"/>
+      <c r="D17" s="12">
         <v>2449</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>1</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="12">
         <v>100</v>
       </c>
-      <c r="G17" s="56">
+      <c r="G17" s="110">
         <f t="shared" si="2"/>
         <v>244900</v>
       </c>
-      <c r="H17" s="57"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="59">
+      <c r="H17" s="76"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="77">
         <v>0</v>
       </c>
-      <c r="L17" s="60"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="53"/>
-      <c r="W17" s="1">
+      <c r="L17" s="78"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="W17">
         <f>V12*2</f>
         <v>4898</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B18" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="14">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B18" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="72"/>
+      <c r="D18" s="12">
         <v>2449</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="12">
         <v>1</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="12">
         <v>10</v>
       </c>
-      <c r="G18" s="56">
+      <c r="G18" s="110">
         <f t="shared" si="2"/>
         <v>24490</v>
       </c>
-      <c r="H18" s="57"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="59">
+      <c r="H18" s="76"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="77">
         <v>0</v>
       </c>
-      <c r="L18" s="60"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="53"/>
-    </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B19" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="14">
+      <c r="L18" s="78"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B19" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="112"/>
+      <c r="D19" s="12">
         <v>2449</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
         <v>1</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="12">
         <v>100</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="113">
         <f t="shared" si="2"/>
         <v>244900</v>
       </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="50">
+      <c r="H19" s="114"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="116">
         <v>0</v>
       </c>
-      <c r="L19" s="51"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="W19" s="3">
+      <c r="L19" s="117"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="W19" s="1">
         <f>W17*200</f>
         <v>979600</v>
       </c>
     </row>
-    <row r="20" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="89" t="s">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B20" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="12">
+        <v>2449</v>
+      </c>
+      <c r="E20" s="12">
         <v>50</v>
       </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="14">
-        <v>2449</v>
-      </c>
-      <c r="E20" s="14">
-        <v>50</v>
-      </c>
-      <c r="F20" s="14">
+      <c r="F20" s="12">
         <v>1</v>
       </c>
-      <c r="G20" s="92">
+      <c r="G20" s="64">
         <f t="shared" si="2"/>
         <v>122450</v>
       </c>
-      <c r="H20" s="93"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="114"/>
-      <c r="S20" s="113"/>
-      <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="90"/>
-      <c r="D21" s="14">
+      <c r="H20" s="65"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="27"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B21" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="12">
         <v>2449</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <v>200</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="12">
         <v>1</v>
       </c>
-      <c r="G21" s="92">
+      <c r="G21" s="64">
         <f t="shared" si="2"/>
         <v>489800</v>
       </c>
-      <c r="H21" s="93"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="111"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="117"/>
-      <c r="W21" s="3"/>
-    </row>
-    <row r="22" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="109">
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="31"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B22" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22">
         <f>SUM(G11:H21)</f>
         <v>32609640</v>
       </c>
-      <c r="H22" s="109"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
-      <c r="W22" s="3"/>
-    </row>
-    <row r="23" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="122" t="s">
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="2:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="126" t="s">
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="40"/>
+    </row>
+    <row r="24" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="38"/>
-    </row>
-    <row r="24" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="127" t="s">
+      <c r="C24" s="38"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="127" t="s">
+      <c r="H24" s="38"/>
+      <c r="I24" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="36"/>
-      <c r="I24" s="128" t="s">
+      <c r="J24" s="38"/>
+      <c r="K24" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="36"/>
-      <c r="K24" s="129" t="s">
+      <c r="L24" s="38"/>
+      <c r="M24" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="36"/>
-      <c r="M24" s="130" t="s">
+      <c r="N24" s="54"/>
+      <c r="O24" s="55">
+        <v>1</v>
+      </c>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="54"/>
+    </row>
+    <row r="25" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="40"/>
+    </row>
+    <row r="26" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="118" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="119"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="124">
+        <v>200</v>
+      </c>
+      <c r="H26" s="125"/>
+      <c r="I26" s="126">
+        <v>44160</v>
+      </c>
+      <c r="J26" s="125"/>
+      <c r="K26" s="127"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="N24" s="34"/>
-      <c r="O24" s="131">
-        <v>1</v>
-      </c>
-      <c r="P24" s="132"/>
-      <c r="Q24" s="132"/>
-      <c r="R24" s="76"/>
-      <c r="S24" s="34"/>
-    </row>
-    <row r="25" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="38"/>
-    </row>
-    <row r="26" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="30">
-        <v>200</v>
-      </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="32">
-        <v>44160</v>
-      </c>
-      <c r="J26" s="31"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="29"/>
-      <c r="W26" s="1">
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="43"/>
+      <c r="W26">
         <f>0.3*V12</f>
         <v>734.69999999999993</v>
       </c>
-      <c r="Y26" s="20"/>
-    </row>
-    <row r="27" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="27" t="s">
+      <c r="Y26" s="18"/>
+    </row>
+    <row r="27" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="120"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="N27" s="28"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="42">
+      <c r="N27" s="42"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="58">
         <v>5548000</v>
       </c>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="44"/>
-    </row>
-    <row r="28" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="27" t="s">
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="60"/>
+    </row>
+    <row r="28" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="120"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="42"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="60"/>
+    </row>
+    <row r="29" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="120"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="N28" s="28"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="42">
-        <v>1000000</v>
-      </c>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="44"/>
-    </row>
-    <row r="29" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="N29" s="28"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="42">
+      <c r="N29" s="42"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="58">
         <v>20000000</v>
       </c>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="44"/>
-    </row>
-    <row r="30" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="N30" s="28"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="42">
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="60"/>
+    </row>
+    <row r="30" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="120"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="N30" s="42"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="58">
         <f>P27+P28+P29</f>
         <v>26548000</v>
       </c>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="44"/>
-    </row>
-    <row r="31" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="N31" s="28"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="118">
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="60"/>
+    </row>
+    <row r="31" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="120"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="42"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="32">
         <v>159</v>
       </c>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="120"/>
-    </row>
-    <row r="32" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="28"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="42">
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="34"/>
+    </row>
+    <row r="32" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="122"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" s="42"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="58">
         <v>26740</v>
       </c>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="44"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="60"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="B26:C32"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L32"/>
+    <mergeCell ref="M26:S26"/>
+    <mergeCell ref="G27:H32"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:O7"/>
+    <mergeCell ref="P6:S7"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="K3:S3"/>
+    <mergeCell ref="K4:S4"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="O9:S10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B8:S8"/>
+    <mergeCell ref="O11:S19"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="I22:S22"/>
@@ -2490,91 +2573,6 @@
     <mergeCell ref="P30:S30"/>
     <mergeCell ref="M31:O31"/>
     <mergeCell ref="M32:O32"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B8:S8"/>
-    <mergeCell ref="O11:S19"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="K6:O7"/>
-    <mergeCell ref="P6:S7"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="K3:S3"/>
-    <mergeCell ref="K4:S4"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="O9:S10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="B26:C32"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L32"/>
-    <mergeCell ref="M26:S26"/>
-    <mergeCell ref="G27:H32"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P28:S28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
